--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgerojas/Box Sync/_CurrentClasses/BMI/2018 - Fall/BMI 6015 - Machine Learning/Homework/NNExample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CEFDFA-D9AE-9F49-9563-41A5F7250D8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0598DEE2-A149-8046-9C94-D4D448E1644D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="440" windowWidth="32700" windowHeight="18540" xr2:uid="{1468D4CB-F8DF-944D-A077-E1FC66756716}"/>
+    <workbookView xWindow="23700" yWindow="440" windowWidth="14680" windowHeight="21060" xr2:uid="{1468D4CB-F8DF-944D-A077-E1FC66756716}"/>
   </bookViews>
   <sheets>
     <sheet name="WebExample-GOOD" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>OUT</t>
   </si>
@@ -80,9 +80,6 @@
     <t>ErrorTotal</t>
   </si>
   <si>
-    <t>delta</t>
-  </si>
-  <si>
     <t>LearningRate</t>
   </si>
   <si>
@@ -96,6 +93,15 @@
   </si>
   <si>
     <t>Etotal</t>
+  </si>
+  <si>
+    <t>Bias-Errors</t>
+  </si>
+  <si>
+    <t>bias updates</t>
+  </si>
+  <si>
+    <t>new weights</t>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -149,13 +155,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,30 +199,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FF40C5-87F6-9244-99B8-3B91A6A4EC86}">
-  <dimension ref="A2:M36"/>
+  <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:M34"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,38 +566,38 @@
       <c r="B2">
         <v>0.1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>0.15</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0.25</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <f t="array" ref="I2:J2">MMULT(sI,sA)</f>
         <v>2.7500000000000004E-2</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="8">
         <v>4.2499999999999996E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.3</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <f>I2+E5</f>
         <v>0.3775</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="8">
         <f>J2+F5</f>
         <v>0.39249999999999996</v>
       </c>
@@ -600,14 +606,14 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <f>1/(1+EXP(-I3))</f>
         <v>0.59326999210718723</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <f t="shared" ref="J4" si="0">1/(1+EXP(-J3))</f>
         <v>0.59688437825976703</v>
       </c>
@@ -615,66 +621,66 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5">
         <v>0.35</v>
       </c>
       <c r="F5">
         <v>0.35</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <f>I4*(1-I4)</f>
         <v>0.24130070857232525</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <f t="shared" ref="J5" si="1">J4*(1-J4)</f>
         <v>0.24061341724921839</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.4</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.5</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <f t="array" ref="I8:J8">MMULT(sH,sAA)</f>
         <v>0.50590596705977009</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>0.62492140409646546</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.45</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <f>I8+E11</f>
         <v>1.10590596705977</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <f>J8+F11</f>
         <v>1.2249214040964653</v>
       </c>
@@ -687,14 +693,14 @@
         <f>I4*E8+J4*E9</f>
         <v>0.50590596705977009</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <f>1/(1+EXP(-I9))</f>
         <v>0.75136506955231575</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <f>1/(1+EXP(-J9))</f>
         <v>0.77292846532146253</v>
       </c>
@@ -710,38 +716,38 @@
       <c r="F11">
         <v>0.6</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="11">
         <f>I10*(1-I10)</f>
         <v>0.18681560180895948</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <f>J10*(1-J10)</f>
         <v>0.17551005281727122</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <v>0.01</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="8">
         <v>0.99</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="8">
         <f>((I12-I10)^2)/2</f>
         <v>0.27481108317615499</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="8">
         <f>((J12-J10)^2)/2</f>
         <v>2.3560025583847746E-2</v>
       </c>
@@ -751,28 +757,28 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="11">
         <f>I10-I12</f>
         <v>0.74136506955231574</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="11">
         <f>J10-J12</f>
         <v>-0.21707153467853746</v>
       </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="8">
         <f>I15*I11*I4</f>
         <v>8.2167040564230784E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="8">
         <f>J15*J11*I4</f>
         <v>-2.2602540477475067E-2</v>
       </c>
@@ -780,12 +786,13 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G17" s="7"/>
-      <c r="I17">
+      <c r="G17" s="14"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8">
         <f>I15*I11*J4</f>
         <v>8.2667627847533259E-2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="8">
         <f>J15*J11*I4</f>
         <v>-2.2602540477475067E-2</v>
       </c>
@@ -793,76 +800,97 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H18" s="1"/>
+      <c r="H18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="8">
+        <f>I15*I11*G20</f>
+        <v>6.9249280814278488E-2</v>
+      </c>
+      <c r="J18" s="8">
+        <f>J15*J11*G20</f>
+        <v>-1.9049118258278114E-2</v>
+      </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H19" s="1" t="s">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="7">
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="17">
         <f>E8-(G20*I16)</f>
         <v>0.35891647971788465</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J20" s="17">
         <f>F8-J16*G20</f>
         <v>0.5113012702387375</v>
       </c>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20">
-        <v>0.5</v>
-      </c>
-      <c r="I20">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H21" s="17"/>
+      <c r="I21" s="17">
         <f>E9-G20*I17</f>
         <v>0.4086661860762334</v>
       </c>
-      <c r="J20">
+      <c r="J21" s="17">
         <f>F9-G20*J17</f>
         <v>0.56130127023873755</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H21" s="1"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="17">
+        <f>E11-I18</f>
+        <v>0.53075071918572148</v>
+      </c>
+      <c r="J22" s="17">
+        <f>F11-J18</f>
+        <v>0.61904911825827813</v>
+      </c>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27">
         <f>I15*I11</f>
@@ -872,86 +900,112 @@
         <f>J15*J11</f>
         <v>-3.8098236516556229E-2</v>
       </c>
+      <c r="K27" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="3">
+        <v>14</v>
+      </c>
+      <c r="I28" s="9">
         <f>I27*E8</f>
         <v>5.5399424651422793E-2</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="9">
         <f>J27*F8</f>
         <v>-1.9049118258278114E-2</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="15">
         <f>SUM(I28:J28)</f>
         <v>3.6350306393144682E-2</v>
       </c>
-      <c r="L28" t="s">
-        <v>11</v>
-      </c>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I29" s="3">
+      <c r="I29" s="9">
         <f>I27*E9</f>
         <v>6.2324352732850641E-2</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="9">
         <f>J27*F9</f>
         <v>-2.0954030084105929E-2</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="15">
         <f>SUM(I29:J29)</f>
         <v>4.1370322648744712E-2</v>
       </c>
-      <c r="L29" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32">
+      <c r="H32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="14">
         <f>K28*I5*A2</f>
         <v>4.3856773447434685E-4</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="14">
         <f>K29*J5*A2</f>
         <v>4.977127352608601E-4</v>
       </c>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I33">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H33" s="14"/>
+      <c r="I33" s="14">
         <f>K28*I5*B2</f>
         <v>8.771354689486937E-4</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="14">
         <f>K29*J5*B2</f>
         <v>9.954254705217202E-4</v>
       </c>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H34" s="14"/>
+      <c r="I34" s="18">
+        <f>K28*I5</f>
+        <v>8.7713546894869366E-3</v>
+      </c>
+      <c r="J34" s="14">
+        <f>K29*J5</f>
+        <v>9.9542547052172015E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="17">
         <f>E2-I32*$G$20</f>
         <v>0.14978071613276281</v>
       </c>
-      <c r="J35">
+      <c r="J36" s="17">
         <f>F2-J32*G20</f>
         <v>0.24975114363236958</v>
       </c>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36">
+    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="17"/>
+      <c r="I37" s="17">
         <f>E3-(I33*G20)</f>
         <v>0.19956143226552567</v>
       </c>
-      <c r="J36">
+      <c r="J37" s="17">
         <f>F3-(G20*J33)</f>
         <v>0.29950228726473915</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="17">
+        <f>E5-G20*I34</f>
+        <v>0.34561432265525649</v>
+      </c>
+      <c r="J38" s="17">
+        <f>F5-G20*J34</f>
+        <v>0.3450228726473914</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgerojas/Box Sync/_CurrentClasses/BMI/2018 - Fall/BMI 6015 - Machine Learning/Homework/NNExample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgerojas/Box Sync/_CurrentClasses/BMI/2018 - Fall/BMI 6015 - Machine Learning/Homework/NNEXampleGit/BMI-6015-NNExample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0598DEE2-A149-8046-9C94-D4D448E1644D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50472E56-406B-0140-A75B-6B8D2B0C08E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23700" yWindow="440" windowWidth="14680" windowHeight="21060" xr2:uid="{1468D4CB-F8DF-944D-A077-E1FC66756716}"/>
+    <workbookView xWindow="12640" yWindow="440" windowWidth="25740" windowHeight="21060" xr2:uid="{1468D4CB-F8DF-944D-A077-E1FC66756716}"/>
   </bookViews>
   <sheets>
     <sheet name="WebExample-GOOD" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>OUT</t>
   </si>
@@ -89,9 +89,6 @@
     <t>W2*ErrorPrime*SigmoidPrime</t>
   </si>
   <si>
-    <t>ErrorTotal*W2</t>
-  </si>
-  <si>
     <t>Etotal</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>new weights</t>
+  </si>
+  <si>
+    <t>ErrorTotal*W2*ErrorPrime*SigmoidPrime</t>
   </si>
 </sst>
 </file>
@@ -128,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +165,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -193,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -222,7 +228,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +553,7 @@
   <dimension ref="A2:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +564,7 @@
     <col min="4" max="4" width="3.6640625" customWidth="1"/>
     <col min="5" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
@@ -689,10 +702,6 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f>I4*E8+J4*E9</f>
-        <v>0.50590596705977009</v>
-      </c>
       <c r="H10" s="6" t="s">
         <v>4</v>
       </c>
@@ -706,10 +715,6 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f>I4*E8+J4*E9</f>
-        <v>0.50590596705977009</v>
-      </c>
       <c r="E11">
         <v>0.6</v>
       </c>
@@ -771,14 +776,14 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="H16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="19">
         <f>I15*I11*I4</f>
         <v>8.2167040564230784E-2</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="19">
         <f>J15*J11*I4</f>
         <v>-2.2602540477475067E-2</v>
       </c>
@@ -787,27 +792,27 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G17" s="14"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19">
         <f>I15*I11*J4</f>
         <v>8.2667627847533259E-2</v>
       </c>
-      <c r="J17" s="8">
-        <f>J15*J11*I4</f>
-        <v>-2.2602540477475067E-2</v>
+      <c r="J17" s="19">
+        <f>J15*J11*J4</f>
+        <v>-2.2740242215978219E-2</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="8">
+      <c r="H18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="19">
         <f>I15*I11*G20</f>
         <v>6.9249280814278488E-2</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="19">
         <f>J15*J11*G20</f>
         <v>-1.9049118258278114E-2</v>
       </c>
@@ -824,7 +829,7 @@
         <v>0.5</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="17">
         <f>E8-(G20*I16)</f>
@@ -843,13 +848,13 @@
       </c>
       <c r="J21" s="17">
         <f>F9-G20*J17</f>
-        <v>0.56130127023873755</v>
+        <v>0.56137012110798912</v>
       </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="17">
         <f>E11-I18</f>
@@ -937,43 +942,45 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="14">
+      <c r="H32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="21">
         <f>K28*I5*A2</f>
         <v>4.3856773447434685E-4</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="21">
         <f>K29*J5*A2</f>
         <v>4.977127352608601E-4</v>
       </c>
     </row>
     <row r="33" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H33" s="14"/>
-      <c r="I33" s="14">
+      <c r="H33" s="21"/>
+      <c r="I33" s="21">
         <f>K28*I5*B2</f>
         <v>8.771354689486937E-4</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="21">
         <f>K29*J5*B2</f>
         <v>9.954254705217202E-4</v>
       </c>
     </row>
     <row r="34" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H34" s="14"/>
-      <c r="I34" s="18">
+      <c r="H34" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="19">
         <f>K28*I5</f>
         <v>8.7713546894869366E-3</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="21">
         <f>K29*J5</f>
         <v>9.9542547052172015E-3</v>
       </c>
     </row>
     <row r="36" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H36" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I36" s="17">
         <f>E2-I32*$G$20</f>
@@ -997,7 +1004,7 @@
     </row>
     <row r="38" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H38" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I38" s="17">
         <f>E5-G20*I34</f>
